--- a/tableAndAttributeSummaries.xlsx
+++ b/tableAndAttributeSummaries.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simpson055\Downloads\Re%3a_CS205_Milestone_3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="85">
   <si>
     <t>Table</t>
   </si>
@@ -72,9 +77,6 @@
     <t>Unit Cost</t>
   </si>
   <si>
-    <t>FLOAT</t>
-  </si>
-  <si>
     <t>&gt;0.00</t>
   </si>
   <si>
@@ -256,6 +258,24 @@
   </si>
   <si>
     <t>TechnicianID, PartID</t>
+  </si>
+  <si>
+    <t>Assembly Card</t>
+  </si>
+  <si>
+    <t>Assembly Card Entity</t>
+  </si>
+  <si>
+    <t>Creates</t>
+  </si>
+  <si>
+    <t>Creates Relationship</t>
+  </si>
+  <si>
+    <t>OrderID, Card Number</t>
+  </si>
+  <si>
+    <t>FLOAT(12,2)</t>
   </si>
 </sst>
 </file>
@@ -302,6 +322,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -350,7 +373,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,7 +408,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -594,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,10 +707,10 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -701,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -727,10 +750,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -747,7 +770,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -767,13 +790,13 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>25</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
       </c>
       <c r="I9" t="s">
         <v>15</v>
@@ -784,13 +807,13 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -810,10 +833,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -830,10 +853,10 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -850,12 +873,12 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -863,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -889,10 +912,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
@@ -909,10 +932,10 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
         <v>13</v>
@@ -929,7 +952,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
@@ -946,841 +969,977 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I25" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="H30" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I30" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="H31" t="s">
         <v>14</v>
       </c>
       <c r="I31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>9</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H35" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I35" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H36" t="s">
         <v>14</v>
       </c>
       <c r="I36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>9</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I38" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>48</v>
+      </c>
+      <c r="D39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H41" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I41" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>1</v>
-      </c>
       <c r="B42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>51</v>
+      </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" t="s">
-        <v>9</v>
-      </c>
-      <c r="H47" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>1</v>
-      </c>
       <c r="B48" t="s">
-        <v>55</v>
-      </c>
-      <c r="D48" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" t="s">
-        <v>14</v>
-      </c>
-      <c r="I48" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" t="s">
-        <v>56</v>
-      </c>
-      <c r="D49" t="s">
-        <v>50</v>
-      </c>
-      <c r="E49" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" t="s">
-        <v>14</v>
-      </c>
-      <c r="I49" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>53</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" t="s">
+        <v>10</v>
+      </c>
+      <c r="I50" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="D51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" t="s">
-        <v>9</v>
-      </c>
-      <c r="H53" t="s">
-        <v>10</v>
-      </c>
-      <c r="I53" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>1</v>
-      </c>
       <c r="B54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D54" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" t="s">
-        <v>14</v>
-      </c>
-      <c r="I54" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" t="s">
-        <v>59</v>
-      </c>
-      <c r="D55" t="s">
-        <v>50</v>
-      </c>
-      <c r="E55" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" t="s">
-        <v>14</v>
-      </c>
-      <c r="I55" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>56</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1</v>
+      </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
-      </c>
-      <c r="D59" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" t="s">
-        <v>9</v>
-      </c>
-      <c r="H59" t="s">
-        <v>10</v>
-      </c>
-      <c r="I59" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>1</v>
-      </c>
       <c r="B60" t="s">
-        <v>63</v>
-      </c>
-      <c r="D60" t="s">
-        <v>66</v>
-      </c>
-      <c r="E60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H60" t="s">
-        <v>26</v>
-      </c>
-      <c r="I60" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" t="s">
-        <v>64</v>
-      </c>
-      <c r="D61" t="s">
-        <v>67</v>
-      </c>
-      <c r="E61" t="s">
-        <v>16</v>
-      </c>
-      <c r="H61" t="s">
-        <v>26</v>
-      </c>
-      <c r="I61" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" t="s">
         <v>65</v>
+      </c>
+      <c r="E63" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" t="s">
+        <v>25</v>
+      </c>
+      <c r="I63" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D64" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H64" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I64" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
-      </c>
-      <c r="D65" t="s">
-        <v>20</v>
-      </c>
-      <c r="E65" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" t="s">
-        <v>14</v>
-      </c>
-      <c r="I65" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>2</v>
-      </c>
-      <c r="B66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D66" t="s">
-        <v>27</v>
-      </c>
-      <c r="E66" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" t="s">
-        <v>14</v>
-      </c>
-      <c r="I66" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>59</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1</v>
+      </c>
       <c r="B68" t="s">
-        <v>32</v>
+        <v>60</v>
+      </c>
+      <c r="D68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
-      </c>
-      <c r="D70" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" t="s">
-        <v>9</v>
-      </c>
-      <c r="H70" t="s">
-        <v>10</v>
-      </c>
-      <c r="I70" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>1</v>
-      </c>
       <c r="B71" t="s">
-        <v>70</v>
-      </c>
-      <c r="D71" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" t="s">
-        <v>14</v>
-      </c>
-      <c r="I71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" t="s">
-        <v>71</v>
-      </c>
-      <c r="D72" t="s">
-        <v>29</v>
-      </c>
-      <c r="E72" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" t="s">
-        <v>14</v>
-      </c>
-      <c r="I72" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1</v>
+      </c>
       <c r="B74" t="s">
+        <v>69</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" t="s">
+        <v>70</v>
+      </c>
+      <c r="D75" t="s">
         <v>28</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>72</v>
-      </c>
-      <c r="D76" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" t="s">
-        <v>9</v>
-      </c>
-      <c r="H76" t="s">
-        <v>10</v>
-      </c>
-      <c r="I76" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>1</v>
-      </c>
       <c r="B77" t="s">
-        <v>73</v>
-      </c>
-      <c r="D77" t="s">
-        <v>40</v>
-      </c>
-      <c r="E77" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" t="s">
-        <v>14</v>
-      </c>
-      <c r="I77" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>2</v>
-      </c>
-      <c r="B78" t="s">
-        <v>74</v>
-      </c>
-      <c r="D78" t="s">
-        <v>29</v>
-      </c>
-      <c r="E78" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78" t="s">
-        <v>14</v>
-      </c>
-      <c r="I78" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>71</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79" t="s">
+        <v>10</v>
+      </c>
+      <c r="I79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>72</v>
+      </c>
+      <c r="D80" t="s">
+        <v>39</v>
+      </c>
+      <c r="E80" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" t="s">
+        <v>73</v>
+      </c>
+      <c r="D81" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>3</v>
       </c>
-      <c r="B79" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+      <c r="B82" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>81</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>9</v>
+      </c>
+      <c r="H85" t="s">
+        <v>10</v>
+      </c>
+      <c r="I85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
+        <v>82</v>
+      </c>
+      <c r="D86" t="s">
         <v>28</v>
+      </c>
+      <c r="E86" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" t="s">
+        <v>83</v>
+      </c>
+      <c r="D87" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/tableAndAttributeSummaries.xlsx
+++ b/tableAndAttributeSummaries.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simpson055\Downloads\Re%3a_CS205_Milestone_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simpson055\Desktop\CS205-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="94">
   <si>
     <t>Table</t>
   </si>
@@ -92,12 +92,6 @@
     <t>Technician Entity</t>
   </si>
   <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-  </si>
-  <si>
     <t>Optional</t>
   </si>
   <si>
@@ -152,9 +146,6 @@
     <t>VARCHAR (30)</t>
   </si>
   <si>
-    <t>VARCHAR (50)</t>
-  </si>
-  <si>
     <t>Supplier</t>
   </si>
   <si>
@@ -227,9 +218,6 @@
     <t>TechnicianID, Card Number</t>
   </si>
   <si>
-    <t>For</t>
-  </si>
-  <si>
     <t>For Relationship</t>
   </si>
   <si>
@@ -276,6 +264,45 @@
   </si>
   <si>
     <t>FLOAT(12,2)</t>
+  </si>
+  <si>
+    <t>ForPart</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>&gt;=0</t>
+  </si>
+  <si>
+    <t>LineTotal</t>
+  </si>
+  <si>
+    <t>Derived</t>
+  </si>
+  <si>
+    <t>OrderTotal</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>CHAR(2)</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
   </si>
 </sst>
 </file>
@@ -617,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,7 +734,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
@@ -790,395 +817,406 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>25</v>
-      </c>
       <c r="I9" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>74</v>
-      </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>75</v>
-      </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>70</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
       <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
         <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
       <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I23" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="E24" t="s">
         <v>13</v>
       </c>
+      <c r="G24" t="s">
+        <v>83</v>
+      </c>
       <c r="H24" t="s">
         <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>9</v>
       </c>
       <c r="H26" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I28" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>9</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="H33" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I33" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H34" t="s">
         <v>14</v>
@@ -1188,17 +1226,11 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" t="s">
-        <v>46</v>
-      </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s">
         <v>14</v>
@@ -1208,14 +1240,11 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>3</v>
-      </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="H36" t="s">
         <v>14</v>
@@ -1224,61 +1253,55 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" t="s">
-        <v>11</v>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>9</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
         <v>13</v>
@@ -1292,654 +1315,829 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>3</v>
       </c>
-      <c r="B41" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>32</v>
+      <c r="D42" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" t="s">
+        <v>89</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" t="s">
-        <v>50</v>
-      </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="H44" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I44" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" t="s">
-        <v>51</v>
-      </c>
       <c r="D45" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="H45" t="s">
         <v>14</v>
       </c>
       <c r="I45" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" t="s">
-        <v>14</v>
-      </c>
-      <c r="I46" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>44</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>45</v>
+      </c>
+      <c r="D48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H50" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I50" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>1</v>
-      </c>
       <c r="B51" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" t="s">
-        <v>55</v>
-      </c>
-      <c r="D52" t="s">
-        <v>49</v>
-      </c>
-      <c r="E52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>47</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="D54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" t="s">
-        <v>10</v>
-      </c>
-      <c r="I56" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>1</v>
-      </c>
       <c r="B57" t="s">
-        <v>57</v>
-      </c>
-      <c r="D57" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" t="s">
-        <v>14</v>
-      </c>
-      <c r="I57" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" t="s">
-        <v>58</v>
-      </c>
-      <c r="D58" t="s">
-        <v>49</v>
-      </c>
-      <c r="E58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" t="s">
-        <v>14</v>
-      </c>
-      <c r="I58" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>50</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1</v>
+      </c>
       <c r="B60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
         <v>52</v>
+      </c>
+      <c r="D61" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
-      </c>
-      <c r="D62" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" t="s">
-        <v>9</v>
-      </c>
-      <c r="H62" t="s">
-        <v>10</v>
-      </c>
-      <c r="I62" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>1</v>
-      </c>
       <c r="B63" t="s">
-        <v>62</v>
-      </c>
-      <c r="D63" t="s">
-        <v>65</v>
-      </c>
-      <c r="E63" t="s">
-        <v>16</v>
-      </c>
-      <c r="H63" t="s">
-        <v>25</v>
-      </c>
-      <c r="I63" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" t="s">
-        <v>63</v>
-      </c>
-      <c r="D64" t="s">
-        <v>66</v>
-      </c>
-      <c r="E64" t="s">
-        <v>16</v>
-      </c>
-      <c r="H64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I64" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>53</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" t="s">
+        <v>10</v>
+      </c>
+      <c r="I65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H67" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I67" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>1</v>
       </c>
-      <c r="B68" t="s">
-        <v>60</v>
-      </c>
-      <c r="D68" t="s">
-        <v>19</v>
-      </c>
-      <c r="E68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H68" t="s">
-        <v>14</v>
-      </c>
-      <c r="I68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" t="s">
-        <v>67</v>
-      </c>
-      <c r="D69" t="s">
-        <v>26</v>
-      </c>
-      <c r="E69" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" t="s">
-        <v>14</v>
-      </c>
-      <c r="I69" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>3</v>
-      </c>
-      <c r="B70" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>31</v>
+      <c r="B72" t="s">
+        <v>59</v>
+      </c>
+      <c r="D72" t="s">
+        <v>62</v>
+      </c>
+      <c r="E72" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" t="s">
+        <v>23</v>
+      </c>
+      <c r="I72" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="E73" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H73" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I73" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>69</v>
-      </c>
-      <c r="D74" t="s">
-        <v>6</v>
-      </c>
-      <c r="E74" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" t="s">
-        <v>14</v>
-      </c>
-      <c r="I74" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>2</v>
-      </c>
-      <c r="B75" t="s">
-        <v>70</v>
-      </c>
-      <c r="D75" t="s">
-        <v>28</v>
-      </c>
-      <c r="E75" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" t="s">
-        <v>14</v>
-      </c>
-      <c r="I75" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>32</v>
+        <v>56</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>9</v>
+      </c>
+      <c r="H76" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1</v>
+      </c>
       <c r="B77" t="s">
-        <v>27</v>
+        <v>57</v>
+      </c>
+      <c r="D77" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" t="s">
+        <v>64</v>
+      </c>
+      <c r="D78" t="s">
+        <v>24</v>
+      </c>
+      <c r="E78" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>71</v>
-      </c>
-      <c r="D79" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" t="s">
-        <v>9</v>
-      </c>
-      <c r="H79" t="s">
-        <v>10</v>
-      </c>
-      <c r="I79" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>1</v>
-      </c>
       <c r="B80" t="s">
-        <v>72</v>
-      </c>
-      <c r="D80" t="s">
-        <v>39</v>
-      </c>
-      <c r="E80" t="s">
-        <v>13</v>
-      </c>
-      <c r="H80" t="s">
-        <v>14</v>
-      </c>
-      <c r="I80" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>2</v>
-      </c>
-      <c r="B81" t="s">
-        <v>73</v>
-      </c>
-      <c r="D81" t="s">
-        <v>28</v>
-      </c>
-      <c r="E81" t="s">
-        <v>13</v>
-      </c>
-      <c r="H81" t="s">
-        <v>14</v>
-      </c>
-      <c r="I81" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>38</v>
+        <v>81</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82" t="s">
+        <v>10</v>
+      </c>
+      <c r="I82" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1</v>
+      </c>
       <c r="B83" t="s">
-        <v>27</v>
+        <v>65</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" t="s">
+        <v>66</v>
+      </c>
+      <c r="D84" t="s">
+        <v>26</v>
+      </c>
+      <c r="E84" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="E85" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="H85" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I85" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>1</v>
-      </c>
       <c r="B86" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="D86" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="E86" t="s">
         <v>13</v>
       </c>
+      <c r="G86" t="s">
+        <v>83</v>
+      </c>
       <c r="H86" t="s">
         <v>14</v>
       </c>
       <c r="I86" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>2</v>
-      </c>
-      <c r="B87" t="s">
-        <v>83</v>
-      </c>
-      <c r="D87" t="s">
-        <v>26</v>
-      </c>
-      <c r="E87" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" t="s">
-        <v>14</v>
-      </c>
-      <c r="I87" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>67</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>9</v>
+      </c>
+      <c r="H88" t="s">
+        <v>10</v>
+      </c>
+      <c r="I88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>37</v>
+      </c>
+      <c r="E89" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" t="s">
+        <v>69</v>
+      </c>
+      <c r="D90" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>3</v>
       </c>
-      <c r="B88" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>31</v>
+      <c r="B91" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>77</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>78</v>
+      </c>
+      <c r="D95" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" t="s">
+        <v>79</v>
+      </c>
+      <c r="D96" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
